--- a/biology/Botanique/Hermann_Steudner/Hermann_Steudner.xlsx
+++ b/biology/Botanique/Hermann_Steudner/Hermann_Steudner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carl Theodor Hermann Steudner (Greiffenberg, arrondissement de Löwenberg-en-Silésie 1er septembre 1832-Wau (Soudan du Sud), 10 avril 1863) est un botaniste et explorateur prussien.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Natif de province de Silésie, il passe son enfance à Görlitz et étudie la botanique, la minéralogie et la médecine à Berlin et Wurtzbourg où il est élève de Christian Gottfried Ehrenberg, Heinrich Wilhelm Dove et Carl Ritter à Berlin et Rudolf Virchow, Franz von Rinecker et Albert von Kölliker à Wurtzbourg. Il devient aussi dans cette dernière l'ami de Ernst Haeckel.
 Il travaille sur les marantaceaes et devient membre de la Société des amis des sciences naturelles de Berlin. À la Société de géographie de Berlin, Heinrich Barth le convainc de participer à une expédition en Afrique pour retrouver Eduard Vogel dont les traces sont perdues au Ouaddaï.
@@ -547,7 +561,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les régions visitées par Steudner ne l'ayant jamais été par un botaniste avant lui, ses études minutieuses sont d'une grande importance et sont reconnues par les Jardins botaniques royaux de Kew, le musée d'histoire naturelle de Londres, le Muséum national d'Histoire naturelle de Paris, le musée suédois d'Histoire Naturelle de Stockholm et l'Herbier national sud-africain à Pretoria.
 Le tropiocolotes steudneri et un genre d'aroideae de la sous-famille des araceaes le Steudnera ont été nommés en son honneur.
@@ -579,7 +595,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Travel reports in Zeitschrift der Berliner Gesellschaft für Erdkunde und Zeitschrift für allgemeine Erdkunde 1861-1864, 1864</t>
         </is>
